--- a/ML_outputs/2/outputshighlight_tomato/KMeansSegmentation/highlight_tomato_metrics.xlsx
+++ b/ML_outputs/2/outputshighlight_tomato/KMeansSegmentation/highlight_tomato_metrics.xlsx
@@ -1,37 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\UrcaDLML\ML_outputs\2\outputshighlight_tomato\KMeansSegmentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F7C48-B636-4FFF-B4BF-25EF27DC968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="2670" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Disease Type</t>
+  </si>
+  <si>
+    <t>Train IoU</t>
+  </si>
+  <si>
+    <t>Validation IoU</t>
+  </si>
+  <si>
+    <t>Train Accuracy</t>
+  </si>
+  <si>
+    <t>Validation Accuracy</t>
+  </si>
+  <si>
+    <t>Tomato_Healthy</t>
+  </si>
+  <si>
+    <t>Tomato_Bacterial_Spot</t>
+  </si>
+  <si>
+    <t>Tomato_Leaf_Mold</t>
+  </si>
+  <si>
+    <t>Tomato_Yellow_Leaf_Curl_Virus</t>
+  </si>
+  <si>
+    <t>Tomato_Early_Blight</t>
+  </si>
+  <si>
+    <t>Tomato_Target_Spot</t>
+  </si>
+  <si>
+    <t>Tomato_Late_Blight</t>
+  </si>
+  <si>
+    <t>Tomato_Septoria_Leaf_Spot</t>
+  </si>
+  <si>
+    <t>Tomato_Mosaic_Virus</t>
+  </si>
+  <si>
+    <t>Tomato_Spider_Mites</t>
+  </si>
+  <si>
+    <t>All_Classes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +106,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,252 +430,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Disease Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Train IoU</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Validation IoU</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Train Accuracy</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Validation Accuracy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Tomato_Healthy</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.283929443359375</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3035385131835938</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tomato_Bacterial_Spot</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.05850763060919004</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08061390589876753</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2281955718994141</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.218408203125</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Tomato_Leaf_Mold</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.28392944335937498</v>
+      </c>
+      <c r="E2">
+        <v>0.30353851318359382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5.8507630609190037E-2</v>
+      </c>
+      <c r="C3">
+        <v>8.0613905898767532E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.22819557189941411</v>
+      </c>
+      <c r="E3">
+        <v>0.21840820312500001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>0.1090411104409215</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.1216871315686135</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3708370208740234</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4">
+        <v>0.12168713156861349</v>
+      </c>
+      <c r="D4">
+        <v>0.37083702087402343</v>
+      </c>
+      <c r="E4">
         <v>0.414093017578125</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tomato_Yellow_Leaf_Curl_Virus</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.211242113105632</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2081949097915324</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3227588653564453</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2862594604492187</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tomato_Early_Blight</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.06077396948563903</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07334565398831525</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2503002166748047</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2324111938476562</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tomato_Target_Spot</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.008266386933548319</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.01107078630656435</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2753715515136719</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2504348754882812</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Tomato_Late_Blight</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.03309498353643169</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02706286938077881</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2936824798583985</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2593460083007812</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Tomato_Septoria_Leaf_Spot</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.06532672583779796</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04205281952298354</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2191532135009766</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2483551025390625</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Tomato_Mosaic_Virus</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.001156690158756277</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0007405064332639147</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1380382537841797</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1654617309570313</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Tomato_Spider_Mites</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.04096309593592337</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04327171105281676</v>
-      </c>
-      <c r="D11" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.21124211310563201</v>
+      </c>
+      <c r="C5">
+        <v>0.20819490979153241</v>
+      </c>
+      <c r="D5">
+        <v>0.32275886535644532</v>
+      </c>
+      <c r="E5">
+        <v>0.28625946044921868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>6.0773969485639033E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.3345653988315246E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.25030021667480468</v>
+      </c>
+      <c r="E6">
+        <v>0.23241119384765621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>8.2663869335483191E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.1070786306564349E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.27537155151367188</v>
+      </c>
+      <c r="E7">
+        <v>0.25043487548828119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>3.3094983536431692E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.7062869380778811E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.29368247985839852</v>
+      </c>
+      <c r="E8">
+        <v>0.25934600830078119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>6.5326725837797958E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.2052819522983537E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.21915321350097661</v>
+      </c>
+      <c r="E9">
+        <v>0.24835510253906251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1.1566901587562769E-3</v>
+      </c>
+      <c r="C10">
+        <v>7.405064332639147E-4</v>
+      </c>
+      <c r="D10">
+        <v>0.13803825378417969</v>
+      </c>
+      <c r="E10">
+        <v>0.16546173095703129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>4.0963095935923372E-2</v>
+      </c>
+      <c r="C11">
+        <v>4.3271711052816762E-2</v>
+      </c>
+      <c r="D11">
         <v>0.1472064971923828</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.16571044921875</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>All_Classes</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.08445824749691058</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08445824749691058</v>
-      </c>
-      <c r="D12" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>8.4458247496910582E-2</v>
+      </c>
+      <c r="C12">
+        <v>8.4458247496910582E-2</v>
+      </c>
+      <c r="D12">
         <v>0.2196031188964844</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.2196031188964844</v>
       </c>
     </row>
